--- a/outputs/p__Actinobacteriota.xlsx
+++ b/outputs/p__Actinobacteriota.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7259C08-FD79-5748-A4B3-73CEB1AFC042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="p__Actinobacteriota_pred-t" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="p__Actinobacteriota_pred-t" sheetId="2" r:id="rId1"/>
+    <sheet name="p__Actinobacteriota_pred-t-p" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
   <si>
     <t>c__Acidimicrobiia</t>
   </si>
@@ -29,12 +35,21 @@
     <t>c__Thermoleophilia</t>
   </si>
   <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>prediction</t>
   </si>
   <si>
+    <t>rejection-f</t>
+  </si>
+  <si>
     <t>RUG836</t>
   </si>
   <si>
+    <t>reject</t>
+  </si>
+  <si>
     <t>RUG729</t>
   </si>
   <si>
@@ -60,28 +75,36 @@
   </si>
   <si>
     <t>RUG422</t>
+  </si>
+  <si>
+    <t>gtdb-Tk</t>
+  </si>
+  <si>
+    <t>c__Actinobacteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,26 +119,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,20 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,210 +466,541 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>-11.88560745142342</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.8062459178949474</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07460147619412247</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-3.737451176246929</v>
+      <c r="C2">
+        <v>-0.80624591789494737</v>
+      </c>
+      <c r="D2">
+        <v>7.4601476194122468E-2</v>
+      </c>
+      <c r="E2">
+        <v>-3.7374511762469291</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-9.328721681884925</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.5377498826198879</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.982793448512141</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-4.638499262858915</v>
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>-9.3287216818849252</v>
+      </c>
+      <c r="C3">
+        <v>-0.53774988261988788</v>
+      </c>
+      <c r="D3">
+        <v>0.98279344851214101</v>
+      </c>
+      <c r="E3">
+        <v>-4.6384992628589146</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-13.26128533585712</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4752286067271589</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3848666538252035</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-4.93217485289246</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>-13.261285335857121</v>
+      </c>
+      <c r="C4">
+        <v>-0.47522860672715889</v>
+      </c>
+      <c r="D4">
+        <v>0.38486665382520352</v>
+      </c>
+      <c r="E4">
+        <v>-4.9321748528924596</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-20.12700131785992</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8750363527488874</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.327144859452983</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-4.249679799706869</v>
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-20.127001317859921</v>
+      </c>
+      <c r="C5">
+        <v>0.87503635274888736</v>
+      </c>
+      <c r="D5">
+        <v>2.3271448594529831</v>
+      </c>
+      <c r="E5">
+        <v>-4.2496797997068692</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-6.202712710913231</v>
-      </c>
-      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>-6.2027127109132314</v>
+      </c>
+      <c r="C6">
         <v>-1.570241013073334</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.184187524838764</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-3.771125233602635</v>
+      <c r="D6">
+        <v>2.1841875248387641</v>
+      </c>
+      <c r="E6">
+        <v>-3.7711252336026351</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>-13.27127589269681</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.9635938796158252</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1.685945457498727</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-2.723229142182524</v>
+      <c r="C7">
+        <v>-0.96359387961582521</v>
+      </c>
+      <c r="D7">
+        <v>-1.6859454574987269</v>
+      </c>
+      <c r="E7">
+        <v>-2.7232291421825239</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.3530391482231189</v>
-      </c>
-      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>-0.35303914822311888</v>
+      </c>
+      <c r="C8">
         <v>-2.715024541983651</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.557617033696252</v>
       </c>
-      <c r="E8" t="n">
-        <v>-4.546962382559392</v>
+      <c r="E8">
+        <v>-4.5469623825593919</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-8.979227018518475</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.377999600662568</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-1.456326122244396</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-5.124873692507808</v>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>-8.9792270185184755</v>
+      </c>
+      <c r="C9">
+        <v>2.3779996006625681</v>
+      </c>
+      <c r="D9">
+        <v>-1.4563261222443959</v>
+      </c>
+      <c r="E9">
+        <v>-5.1248736925078084</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-13.81918987087898</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1.221954508206592</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.003613675802805</v>
-      </c>
-      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>-13.819189870878979</v>
+      </c>
+      <c r="C10">
+        <v>-1.2219545082065919</v>
+      </c>
+      <c r="D10">
+        <v>8.0036136758028054</v>
+      </c>
+      <c r="E10">
         <v>-3.61224751211273</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>-9.650553866904561</v>
       </c>
-      <c r="C11" t="n">
-        <v>2.579750695891177</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-6.695144394015314</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-5.463562356727323</v>
+      <c r="C11">
+        <v>2.5797506958911769</v>
+      </c>
+      <c r="D11">
+        <v>-6.6951443940153137</v>
+      </c>
+      <c r="E11">
+        <v>-5.4635623567273228</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4.4507101860434578E-6</v>
+      </c>
+      <c r="C2">
+        <v>0.28849274270418318</v>
+      </c>
+      <c r="D2">
+        <v>0.69611670400726422</v>
+      </c>
+      <c r="E2">
+        <v>1.5386102578366499E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.69611670400726422</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2.720239547041667E-5</v>
+      </c>
+      <c r="C3">
+        <v>0.178845366551455</v>
+      </c>
+      <c r="D3">
+        <v>0.81816570513680043</v>
+      </c>
+      <c r="E3">
+        <v>2.9617259162741231E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.81816570513680043</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8.2949561987961719E-7</v>
+      </c>
+      <c r="C4">
+        <v>0.29629749502172659</v>
+      </c>
+      <c r="D4">
+        <v>0.70026529836075158</v>
+      </c>
+      <c r="E4">
+        <v>3.4363771219019989E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.70026529836075158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1.4336942703440999E-10</v>
+      </c>
+      <c r="C5">
+        <v>0.18946352740919389</v>
+      </c>
+      <c r="D5">
+        <v>0.80940956130677078</v>
+      </c>
+      <c r="E5">
+        <v>1.1269111406658359E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.80940956130677078</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2.2200831388134571E-4</v>
+      </c>
+      <c r="C6">
+        <v>2.281529740836338E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.97443692159366613</v>
+      </c>
+      <c r="E6">
+        <v>2.5257726840893632E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.97443692159366613</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2.7247718832177289E-6</v>
+      </c>
+      <c r="C7">
+        <v>0.60323777925856747</v>
+      </c>
+      <c r="D7">
+        <v>0.29293767358411738</v>
+      </c>
+      <c r="E7">
+        <v>0.103821822385432</v>
+      </c>
+      <c r="F7">
+        <v>0.60323777925856747</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.1271158200361811</v>
+      </c>
+      <c r="C8">
+        <v>1.1978498439550071E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.85898788783462054</v>
+      </c>
+      <c r="E8">
+        <v>1.917793689648309E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.85898788783462054</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.1431208773186071E-5</v>
+      </c>
+      <c r="C9">
+        <v>0.97830214774761415</v>
+      </c>
+      <c r="D9">
+        <v>2.1146889876896911E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.395311667157457E-4</v>
+      </c>
+      <c r="F9">
+        <v>0.97830214774761415</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>3.3298920235305542E-10</v>
+      </c>
+      <c r="C10">
+        <v>9.8478167000984386E-5</v>
+      </c>
+      <c r="D10">
+        <v>0.99989250062023904</v>
+      </c>
+      <c r="E10">
+        <v>9.0208797708617641E-6</v>
+      </c>
+      <c r="F10">
+        <v>0.99989250062023904</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>4.878248354216854E-6</v>
+      </c>
+      <c r="C11">
+        <v>0.99958030454953495</v>
+      </c>
+      <c r="D11">
+        <v>9.3709135751777895E-5</v>
+      </c>
+      <c r="E11">
+        <v>3.2110806635906702E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.99958030454953495</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/p__Actinobacteriota.xlsx
+++ b/outputs/p__Actinobacteriota.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7259C08-FD79-5748-A4B3-73CEB1AFC042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F397AE-4B1E-E44C-AAB1-111F6C20062B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6160" yWindow="480" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p__Actinobacteriota_pred-t" sheetId="2" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/outputs/p__Actinobacteriota.xlsx
+++ b/outputs/p__Actinobacteriota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8EA27-65DD-8E45-ABA2-5A5D5FB9E8E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA49B5E-BBDA-1746-A1B8-AD1A4721ABAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>hRUG891.fasta</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
   </si>
 </sst>
 </file>
@@ -482,13 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +515,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,8 +541,11 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -556,8 +567,11 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -579,8 +593,11 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -602,8 +619,11 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -625,8 +645,11 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -648,8 +671,11 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,8 +697,11 @@
       <c r="G8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,8 +723,11 @@
       <c r="G9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -717,8 +749,11 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -740,8 +775,11 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -763,8 +801,11 @@
       <c r="G12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -786,8 +827,11 @@
       <c r="G13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -809,8 +853,11 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -832,8 +879,11 @@
       <c r="G15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -855,8 +905,11 @@
       <c r="G16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -878,8 +931,11 @@
       <c r="G17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -901,8 +957,11 @@
       <c r="G18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -924,8 +983,11 @@
       <c r="G19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -947,8 +1009,11 @@
       <c r="G20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -970,8 +1035,11 @@
       <c r="G21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -993,8 +1061,11 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1016,8 +1087,11 @@
       <c r="G23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1037,6 +1111,9 @@
         <v>0.99378694617494145</v>
       </c>
       <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
         <v>8</v>
       </c>
     </row>
